--- a/output_analysis/SPREAD_1_SEC_4.0_ENERGY_1.0_EV-FACTOR_11_EV_10_FLEX_300_TPS.txt.xlsx
+++ b/output_analysis/SPREAD_1_SEC_4.0_ENERGY_1.0_EV-FACTOR_11_EV_10_FLEX_300_TPS.txt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,348 +434,315 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vehicle-ID</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>Trips</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Vehicle-ID</t>
+          <t>Number of Trips</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Trips</t>
+          <t>Sequential Coverage</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Ride-share Distances</t>
+          <t>Ride-share Coverage</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Individual Coverages</t>
+          <t>Individual Coverage</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Individual Energy</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Ride-share Energy</t>
+          <t>Individual Cars</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1 16 21 192</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4 15 26 63</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>114</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3 23 25</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>106</v>
+      </c>
+      <c r="E3" t="n">
         <v>100</v>
       </c>
-      <c r="H2" t="n">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>16 20 24 50 51 152</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>98</v>
-      </c>
       <c r="F3" t="n">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>98</v>
-      </c>
-      <c r="H3" t="n">
-        <v>109</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>4 6 37 44</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>34 36 245</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>97</v>
       </c>
       <c r="E4" t="n">
         <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="G4" t="n">
-        <v>100</v>
-      </c>
-      <c r="H4" t="n">
-        <v>99</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>3</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>12 17 29 107 261</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>35 78 88 94 221</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>125</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F5" t="n">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>100</v>
-      </c>
-      <c r="H5" t="n">
-        <v>93</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>4</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>33 135</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>37 69</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>66</v>
       </c>
       <c r="E6" t="n">
         <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
-        <v>100</v>
-      </c>
-      <c r="H6" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>5</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>35 43</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>41 49 56 115</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>82</v>
       </c>
       <c r="E7" t="n">
         <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="G7" t="n">
-        <v>100</v>
-      </c>
-      <c r="H7" t="n">
-        <v>76</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>6</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>39 50</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>42 61 122</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>55</v>
       </c>
       <c r="E8" t="n">
         <v>100</v>
       </c>
       <c r="F8" t="n">
+        <v>9</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>41 48 51 58 63 205</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>133</v>
+      </c>
+      <c r="E9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F9" t="n">
+        <v>29</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>47 54 69</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
         <v>83</v>
       </c>
-      <c r="G8" t="n">
-        <v>100</v>
-      </c>
-      <c r="H8" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>7</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>62 82 119 156</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>96</v>
-      </c>
-      <c r="F9" t="n">
-        <v>92</v>
-      </c>
-      <c r="G9" t="n">
-        <v>96</v>
-      </c>
-      <c r="H9" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>8</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>81 95 125</t>
-        </is>
-      </c>
       <c r="E10" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F10" t="n">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="G10" t="n">
-        <v>96</v>
-      </c>
-      <c r="H10" t="n">
-        <v>82</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>9</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>66 225</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>109 167</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>65</v>
       </c>
       <c r="E11" t="n">
         <v>100</v>
       </c>
       <c r="F11" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>100</v>
-      </c>
-      <c r="H11" t="n">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>10</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>79 88 139 141</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>114 157 159</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>74</v>
       </c>
       <c r="E12" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F12" t="n">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="G12" t="n">
-        <v>100</v>
-      </c>
-      <c r="H12" t="n">
-        <v>61</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
